--- a/databasesandtemplate/basedatos.xlsx
+++ b/databasesandtemplate/basedatos.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SORACA\Desktop\duro\develop\pdf-generator-with-onlyoffice-docbuilder\databasesandtemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995F9827-F890-4966-8225-323C8D204BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="basedatos" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="basedatos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Tabla1" hidden="0">#REF!</definedName>
-    <definedName name="TablaPersonas" hidden="0">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basedatos!$A$1</definedName>
+    <definedName name="Tabla1">#REF!</definedName>
+    <definedName name="TablaPersonas">#REF!</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Nombre</t>
   </si>
@@ -38,7 +45,7 @@
     <t>García</t>
   </si>
   <si>
-    <t xml:space="preserve">Calle de la Paz 12, 28004 Madrid</t>
+    <t>Calle de la Paz 12, 28004 Madrid</t>
   </si>
   <si>
     <t>sofia@gmail.com</t>
@@ -50,7 +57,7 @@
     <t>Pérez</t>
   </si>
   <si>
-    <t xml:space="preserve">Avenida de la Libertad 56, 41001 Sevilla</t>
+    <t>Avenida de la Libertad 56, 41001 Sevilla</t>
   </si>
   <si>
     <t>juan@gmail.com</t>
@@ -62,7 +69,7 @@
     <t>Rodríguez</t>
   </si>
   <si>
-    <t xml:space="preserve">Calle de la Luna 8, 50001 Zaragoza</t>
+    <t>Calle de la Luna 8, 50001 Zaragoza</t>
   </si>
   <si>
     <t>maria@gmail.com</t>
@@ -74,7 +81,7 @@
     <t>Sánchez</t>
   </si>
   <si>
-    <t xml:space="preserve">Plaza de España 3, 33001 Oviedo</t>
+    <t>Plaza de España 3, 33001 Oviedo</t>
   </si>
   <si>
     <t>ana@gmail.com</t>
@@ -86,7 +93,7 @@
     <t>Martínez</t>
   </si>
   <si>
-    <t xml:space="preserve">Calle de la Victoria 21, 18001 Granada</t>
+    <t>Calle de la Victoria 21, 18001 Granada</t>
   </si>
   <si>
     <t>carlos@gmail.com</t>
@@ -98,34 +105,68 @@
     <t>Soracá</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfredo De La Peña, Cra 7 Cl 15#45</t>
+    <t>Alfredo De La Peña, Cra 7 Cl 15#45</t>
   </si>
   <si>
     <t>josealfredosoraca@gmail.com</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>Mancer</t>
+  </si>
+  <si>
+    <t>Barrio Centro</t>
+  </si>
+  <si>
+    <t>lianadfdfsgdf@gmail.com</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Otra dir</t>
+  </si>
+  <si>
+    <t>Pedro@gmail.com</t>
+  </si>
+  <si>
+    <t>DNI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
-      <color theme="0" tint="0"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,32 +178,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0"/>
-        <bgColor theme="1" tint="0"/>
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -171,295 +212,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -662,19 +423,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,104 +453,159 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="E2">
+        <v>86484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="E3">
+        <v>5455575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="E4">
+        <v>21586574847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="E5">
+        <v>21554796941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="E6">
+        <v>56798564124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E7">
+        <v>5214856545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>158257964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>54527415</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1"/>
+  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{5F4A3C88-33F1-4B38-BF59-1C1BE1587A56}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{B1536EE0-163E-4A4D-9F85-56DCF9FFCA47}"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/databasesandtemplate/basedatos.xlsx
+++ b/databasesandtemplate/basedatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SORACA\Desktop\duro\develop\pdf-generator-with-onlyoffice-docbuilder\databasesandtemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995F9827-F890-4966-8225-323C8D204BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05B281-AF69-4C19-8A59-1C83BFDD833A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Nombre</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>DNI</t>
+  </si>
+  <si>
+    <t>Efrain</t>
+  </si>
+  <si>
+    <t>Pinto Mancera</t>
+  </si>
+  <si>
+    <t>Alfredo De La Peña, Cra 7 Cl 15#50</t>
+  </si>
+  <si>
+    <t>efrainpintomancera@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -429,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,6 +603,23 @@
       </c>
       <c r="E9">
         <v>54527415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>8541524514</v>
       </c>
     </row>
   </sheetData>
@@ -604,6 +633,7 @@
     <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{5F4A3C88-33F1-4B38-BF59-1C1BE1587A56}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{B1536EE0-163E-4A4D-9F85-56DCF9FFCA47}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{9343392A-9FE0-4D42-A590-33CFFF28936B}"/>
   </hyperlinks>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
